--- a/DataBase Actu.xlsx
+++ b/DataBase Actu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACCENT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C67A95-8D79-422C-B5D0-DCB80BB290D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17012A-7E44-4287-8CAB-CA2AD9F7FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6053397C-C184-4AFA-B7BE-CAE37B4D6050}"/>
   </bookViews>
@@ -35,40 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Titre</t>
   </si>
@@ -89,6 +57,18 @@
   </si>
   <si>
     <t>yh its that freaking dog !</t>
+  </si>
+  <si>
+    <t>i eat halouf?</t>
+  </si>
+  <si>
+    <t>nah i dont think so</t>
+  </si>
+  <si>
+    <t>https://plus.unsplash.com/premium_photo-1664474619075-644dd191935f?fm=jpg&amp;q=60&amp;w=3000&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxzZWFyY2h8MXx8aW1hZ2V8ZW58MHx8MHx8fDA%3D</t>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2015/04/23/22/00/tree-736885_1280.jpg</t>
   </si>
 </sst>
 </file>
@@ -164,75 +144,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +466,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -583,8 +494,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -594,13 +505,17 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">

--- a/DataBase Actu.xlsx
+++ b/DataBase Actu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACCENT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17012A-7E44-4287-8CAB-CA2AD9F7FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9895F608-C835-448C-B347-F8535CB66B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6053397C-C184-4AFA-B7BE-CAE37B4D6050}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Titre</t>
   </si>
@@ -59,16 +59,19 @@
     <t>yh its that freaking dog !</t>
   </si>
   <si>
-    <t>i eat halouf?</t>
-  </si>
-  <si>
-    <t>nah i dont think so</t>
-  </si>
-  <si>
     <t>https://plus.unsplash.com/premium_photo-1664474619075-644dd191935f?fm=jpg&amp;q=60&amp;w=3000&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxzZWFyY2h8MXx8aW1hZ2V8ZW58MHx8MHx8fDA%3D</t>
   </si>
   <si>
     <t>https://cdn.pixabay.com/photo/2015/04/23/22/00/tree-736885_1280.jpg</t>
+  </si>
+  <si>
+    <t>Wthl we are on it !</t>
+  </si>
+  <si>
+    <t>Oh yeah homie we are on it !</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSGRJtbkKjWAfMGYQQ652F1xxK-JRDoiZ1Znw&amp;s</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -506,17 +509,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
